--- a/TDF_PSch_ReleaseNotes.xlsx
+++ b/TDF_PSch_ReleaseNotes.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Details" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Details!$A$1:$M$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Details!$A$1:$M$68</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="185">
   <si>
     <t>Pinnacle 21 ID</t>
   </si>
@@ -550,13 +550,28 @@
     <t>Change label to "Planned Order of Element within Arm"</t>
   </si>
   <si>
-    <t>Fix, if possible</t>
-  </si>
-  <si>
     <t>Should be removed</t>
   </si>
   <si>
-    <t>Add values to match ARMCD</t>
+    <t>All arms have the same schedueld visits, therefore the ARMCD and ARM is not populated. Remove the permissible ARM column</t>
+  </si>
+  <si>
+    <t>Look for a value that represents the concept in codelist, value was not upper case</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a Follow_up Element to each ARM </t>
+  </si>
+  <si>
+    <t>Data Inconsistency</t>
+  </si>
+  <si>
+    <t>Dataset Row</t>
+  </si>
+  <si>
+    <t>The element FOLO / Follow_up was defined in TE but not used in any of the ARMs in TA</t>
   </si>
 </sst>
 </file>
@@ -929,14 +944,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K68" sqref="K68"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -998,7 +1012,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" hidden="1">
+    <row r="2" spans="1:13" ht="30">
       <c r="A2" s="6" t="s">
         <v>89</v>
       </c>
@@ -1035,7 +1049,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30" hidden="1">
+    <row r="3" spans="1:13" ht="30">
       <c r="A3" s="6" t="s">
         <v>89</v>
       </c>
@@ -1072,7 +1086,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" hidden="1">
+    <row r="4" spans="1:13" ht="30">
       <c r="A4" s="6" t="s">
         <v>89</v>
       </c>
@@ -1109,7 +1123,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30" hidden="1">
+    <row r="5" spans="1:13" ht="30">
       <c r="A5" s="6" t="s">
         <v>89</v>
       </c>
@@ -1146,7 +1160,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="30" hidden="1">
+    <row r="6" spans="1:13" ht="30">
       <c r="A6" s="6" t="s">
         <v>89</v>
       </c>
@@ -1183,7 +1197,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" hidden="1">
+    <row r="7" spans="1:13" ht="30">
       <c r="A7" s="6" t="s">
         <v>89</v>
       </c>
@@ -1220,7 +1234,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="30" hidden="1">
+    <row r="8" spans="1:13" ht="30">
       <c r="A8" s="6" t="s">
         <v>89</v>
       </c>
@@ -1257,590 +1271,590 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:13" ht="45">
+      <c r="A9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>21</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="5" t="s">
         <v>170</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:13" ht="45">
+      <c r="A10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>39</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="5" t="s">
         <v>170</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:13" ht="45">
+      <c r="A11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>70</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="5" t="s">
         <v>170</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:13" ht="45">
+      <c r="A12" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>114</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="5" t="s">
         <v>170</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:13" ht="45">
+      <c r="A13" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>138</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="5" t="s">
         <v>170</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:13" ht="45">
+      <c r="A14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>140</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="5" t="s">
         <v>170</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:13" ht="45">
+      <c r="A15" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <v>154</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="5" t="s">
         <v>170</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:13" ht="45">
+      <c r="A16" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="6">
         <v>178</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="5" t="s">
         <v>170</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:13" ht="45">
+      <c r="A17" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>180</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="5" t="s">
         <v>170</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:13" ht="45">
+      <c r="A18" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>230</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="5" t="s">
         <v>170</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:13" ht="45">
+      <c r="A19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <v>245</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="5" t="s">
         <v>170</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:13" ht="45">
+      <c r="A20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>261</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="5" t="s">
         <v>170</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" ht="30" hidden="1">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:13" ht="30">
+      <c r="A21" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" ht="30" hidden="1">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:13" ht="45">
+      <c r="A22" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6">
         <v>3</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="M22" s="2" t="s">
+      <c r="K22" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M22" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" ht="30" hidden="1">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:13" ht="45">
+      <c r="A23" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6">
         <v>5</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="M23" s="2" t="s">
+      <c r="K23" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M23" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="30" hidden="1">
+    <row r="24" spans="1:13" ht="30">
       <c r="A24" s="6" t="s">
         <v>100</v>
       </c>
@@ -1877,7 +1891,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="30" hidden="1">
+    <row r="25" spans="1:13" ht="30">
       <c r="A25" s="6" t="s">
         <v>100</v>
       </c>
@@ -1914,7 +1928,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="30" hidden="1">
+    <row r="26" spans="1:13" ht="30">
       <c r="A26" s="6" t="s">
         <v>100</v>
       </c>
@@ -1951,7 +1965,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="30" hidden="1">
+    <row r="27" spans="1:13" ht="30">
       <c r="A27" s="6" t="s">
         <v>100</v>
       </c>
@@ -1988,7 +2002,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="30" hidden="1">
+    <row r="28" spans="1:13" ht="30">
       <c r="A28" s="6" t="s">
         <v>100</v>
       </c>
@@ -2025,35 +2039,24 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="30" hidden="1">
-      <c r="A29" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>6</v>
+    <row r="29" spans="1:13" ht="60">
+      <c r="A29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>169</v>
@@ -2062,7 +2065,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="30" hidden="1">
+    <row r="30" spans="1:13" ht="30">
       <c r="A30" s="6" t="s">
         <v>112</v>
       </c>
@@ -2072,12 +2075,12 @@
         <v>90</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H30" s="6" t="s">
@@ -2099,7 +2102,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="30" hidden="1">
+    <row r="31" spans="1:13" ht="30">
       <c r="A31" s="6" t="s">
         <v>112</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>90</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>24</v>
@@ -2136,7 +2139,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="30" hidden="1">
+    <row r="32" spans="1:13" ht="30">
       <c r="A32" s="6" t="s">
         <v>112</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>90</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>24</v>
@@ -2173,7 +2176,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="30" hidden="1">
+    <row r="33" spans="1:13" ht="30">
       <c r="A33" s="6" t="s">
         <v>112</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>90</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>24</v>
@@ -2210,100 +2213,115 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" ht="26.25">
-      <c r="A34" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="L34" s="2" t="s">
+    <row r="34" spans="1:13" ht="30">
+      <c r="A34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="30" hidden="1">
+      <c r="M34" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="25.5">
       <c r="A35" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" s="2" customFormat="1" ht="26.25">
-      <c r="A36" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I36" s="1" t="s">
+      <c r="M35" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="30">
+      <c r="A36" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>9</v>
+      <c r="J36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="2" customFormat="1" ht="26.25">
@@ -2316,7 +2334,7 @@
         <v>121</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>16</v>
@@ -2325,7 +2343,7 @@
         <v>17</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>15</v>
@@ -2344,7 +2362,7 @@
         <v>121</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>16</v>
@@ -2353,7 +2371,7 @@
         <v>17</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>15</v>
@@ -2362,37 +2380,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="2" customFormat="1" ht="51.75">
+    <row r="39" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A39" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1">
-        <v>2</v>
-      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="2" customFormat="1" ht="51.75">
@@ -2404,10 +2417,10 @@
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>7</v>
@@ -2416,7 +2429,7 @@
         <v>8</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>5</v>
@@ -2434,22 +2447,22 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>5</v>
@@ -2473,7 +2486,7 @@
         <v>134</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>10</v>
@@ -2482,7 +2495,7 @@
         <v>11</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>5</v>
@@ -2494,41 +2507,40 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="30" hidden="1">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:13" s="2" customFormat="1" ht="51.75">
+      <c r="A43" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="30" hidden="1">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="30">
       <c r="A44" s="6" t="s">
         <v>120</v>
       </c>
@@ -2538,12 +2550,12 @@
         <v>90</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F44" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H44" s="6" t="s">
@@ -2562,7 +2574,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="30" hidden="1">
+    <row r="45" spans="1:13" ht="30">
       <c r="A45" s="6" t="s">
         <v>120</v>
       </c>
@@ -2572,7 +2584,7 @@
         <v>90</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>24</v>
@@ -2596,34 +2608,38 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="2" customFormat="1" ht="26.25">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:13" ht="30">
+      <c r="A46" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="1">
-        <v>2</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>6</v>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="2" customFormat="1" ht="26.25">
@@ -2631,23 +2647,23 @@
         <v>120</v>
       </c>
       <c r="B47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>13</v>
@@ -2661,23 +2677,23 @@
         <v>120</v>
       </c>
       <c r="B48" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>13</v>
@@ -2686,35 +2702,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="2" customFormat="1" ht="26.25">
+    <row r="49" spans="1:10" s="2" customFormat="1" ht="26.25">
       <c r="A49" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="1"/>
+      <c r="B49" s="1">
+        <v>16</v>
+      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="2" customFormat="1" ht="26.25">
+    <row r="50" spans="1:10" s="2" customFormat="1" ht="26.25">
       <c r="A50" s="1" t="s">
         <v>120</v>
       </c>
@@ -2724,16 +2742,16 @@
         <v>131</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>12</v>
@@ -2742,7 +2760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="2" customFormat="1" ht="26.25">
+    <row r="51" spans="1:10" s="2" customFormat="1" ht="26.25">
       <c r="A51" s="1" t="s">
         <v>120</v>
       </c>
@@ -2752,25 +2770,25 @@
         <v>131</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="2" customFormat="1" ht="26.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="2" customFormat="1" ht="26.25">
       <c r="A52" s="1" t="s">
         <v>120</v>
       </c>
@@ -2780,25 +2798,25 @@
         <v>131</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="2" customFormat="1" ht="26.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="2" customFormat="1" ht="26.25">
       <c r="A53" s="1" t="s">
         <v>120</v>
       </c>
@@ -2808,16 +2826,16 @@
         <v>131</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>12</v>
@@ -2826,7 +2844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="2" customFormat="1" ht="26.25">
+    <row r="54" spans="1:10" s="2" customFormat="1" ht="26.25">
       <c r="A54" s="1" t="s">
         <v>120</v>
       </c>
@@ -2836,16 +2854,16 @@
         <v>131</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>12</v>
@@ -2854,7 +2872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="2" customFormat="1" ht="26.25">
+    <row r="55" spans="1:10" s="2" customFormat="1" ht="26.25">
       <c r="A55" s="1" t="s">
         <v>120</v>
       </c>
@@ -2864,16 +2882,16 @@
         <v>131</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>12</v>
@@ -2882,7 +2900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="2" customFormat="1" ht="26.25">
+    <row r="56" spans="1:10" s="2" customFormat="1" ht="26.25">
       <c r="A56" s="1" t="s">
         <v>120</v>
       </c>
@@ -2892,16 +2910,16 @@
         <v>131</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>12</v>
@@ -2910,7 +2928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="2" customFormat="1" ht="26.25">
+    <row r="57" spans="1:10" s="2" customFormat="1" ht="26.25">
       <c r="A57" s="1" t="s">
         <v>120</v>
       </c>
@@ -2920,16 +2938,16 @@
         <v>131</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>12</v>
@@ -2938,7 +2956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="2" customFormat="1" ht="26.25">
+    <row r="58" spans="1:10" s="2" customFormat="1" ht="26.25">
       <c r="A58" s="1" t="s">
         <v>120</v>
       </c>
@@ -2948,16 +2966,16 @@
         <v>131</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>12</v>
@@ -2966,7 +2984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="2" customFormat="1" ht="26.25">
+    <row r="59" spans="1:10" s="2" customFormat="1" ht="26.25">
       <c r="A59" s="1" t="s">
         <v>120</v>
       </c>
@@ -2976,16 +2994,16 @@
         <v>131</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>12</v>
@@ -2994,7 +3012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="2" customFormat="1" ht="26.25">
+    <row r="60" spans="1:10" s="2" customFormat="1" ht="26.25">
       <c r="A60" s="1" t="s">
         <v>120</v>
       </c>
@@ -3004,16 +3022,16 @@
         <v>131</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>12</v>
@@ -3022,7 +3040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="2" customFormat="1" ht="26.25">
+    <row r="61" spans="1:10" s="2" customFormat="1" ht="26.25">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -3032,16 +3050,16 @@
         <v>131</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>12</v>
@@ -3050,7 +3068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="2" customFormat="1" ht="26.25">
+    <row r="62" spans="1:10" s="2" customFormat="1" ht="26.25">
       <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
@@ -3060,16 +3078,16 @@
         <v>131</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>12</v>
@@ -3078,105 +3096,102 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="2" customFormat="1" ht="26.25">
+    <row r="63" spans="1:10" s="2" customFormat="1" ht="26.25">
       <c r="A63" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="1">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="2" customFormat="1" ht="26.25">
+      <c r="A64" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1">
         <v>1</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J63" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="2" customFormat="1" ht="26.25">
-      <c r="A64" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="30" hidden="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="60">
       <c r="A65" s="6" t="s">
         <v>161</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="L65" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="30" hidden="1">
+      <c r="M65" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="30">
       <c r="A66" s="6" t="s">
         <v>161</v>
       </c>
@@ -3186,12 +3201,12 @@
         <v>90</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F66" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H66" s="6" t="s">
@@ -3209,8 +3224,11 @@
       <c r="L66" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="30" hidden="1">
+      <c r="M66" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="30">
       <c r="A67" s="6" t="s">
         <v>161</v>
       </c>
@@ -3220,7 +3238,7 @@
         <v>90</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>24</v>
@@ -3243,26 +3261,52 @@
       <c r="L67" s="5" t="s">
         <v>169</v>
       </c>
+      <c r="M67" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="30">
+      <c r="A68" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M67">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="TI"/>
-        <filter val="TS"/>
-        <filter val="TV"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="TSPARM"/>
-        <filter val="TSPARMCD"/>
-        <filter val="TSPARMCD, TSVAL"/>
-        <filter val="TSVAL, TSPARMCD"/>
-        <filter val="VARIABLE"/>
-        <filter val="Variable, Length"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:M68">
+    <filterColumn colId="0"/>
+    <filterColumn colId="3"/>
+    <filterColumn colId="12"/>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="F2" location="'Rules'!A162" display="SD1082"/>
@@ -3275,68 +3319,68 @@
     <hyperlink ref="G22" location="'Rules'!A3" display="FDAC341"/>
     <hyperlink ref="F24" location="'Rules'!A162" display="SD1082"/>
     <hyperlink ref="G24" location="'Rules'!A162" display="FDAC036"/>
-    <hyperlink ref="F29" location="'Rules'!A162" display="SD1082"/>
-    <hyperlink ref="G29" location="'Rules'!A162" display="FDAC036"/>
-    <hyperlink ref="F34" location="'Rules'!A160" display="SD1078"/>
-    <hyperlink ref="G34" location="'Rules'!A160" display="FDAC055"/>
-    <hyperlink ref="F35" location="'Rules'!A162" display="SD1082"/>
-    <hyperlink ref="G35" location="'Rules'!A162" display="FDAC036"/>
-    <hyperlink ref="F36" location="'Rules'!A63" display="SD0057"/>
-    <hyperlink ref="G36" location="'Rules'!A63" display="FDAC020"/>
+    <hyperlink ref="F30" location="'Rules'!A162" display="SD1082"/>
+    <hyperlink ref="G30" location="'Rules'!A162" display="FDAC036"/>
+    <hyperlink ref="F35" location="'Rules'!A160" display="SD1078"/>
+    <hyperlink ref="G35" location="'Rules'!A160" display="FDAC055"/>
+    <hyperlink ref="F36" location="'Rules'!A162" display="SD1082"/>
+    <hyperlink ref="G36" location="'Rules'!A162" display="FDAC036"/>
     <hyperlink ref="F37" location="'Rules'!A63" display="SD0057"/>
     <hyperlink ref="G37" location="'Rules'!A63" display="FDAC020"/>
     <hyperlink ref="F38" location="'Rules'!A63" display="SD0057"/>
     <hyperlink ref="G38" location="'Rules'!A63" display="FDAC020"/>
-    <hyperlink ref="F39" location="'Rules'!A3" display="CT2002"/>
-    <hyperlink ref="G39" location="'Rules'!A3" display="FDAC341"/>
+    <hyperlink ref="F39" location="'Rules'!A63" display="SD0057"/>
+    <hyperlink ref="G39" location="'Rules'!A63" display="FDAC020"/>
     <hyperlink ref="F40" location="'Rules'!A3" display="CT2002"/>
     <hyperlink ref="G40" location="'Rules'!A3" display="FDAC341"/>
-    <hyperlink ref="F41" location="'Rules'!A6" display="CT2005"/>
-    <hyperlink ref="G41" location="'Rules'!A6" display="FDAC344"/>
+    <hyperlink ref="F41" location="'Rules'!A3" display="CT2002"/>
+    <hyperlink ref="G41" location="'Rules'!A3" display="FDAC341"/>
     <hyperlink ref="F42" location="'Rules'!A6" display="CT2005"/>
     <hyperlink ref="G42" location="'Rules'!A6" display="FDAC344"/>
-    <hyperlink ref="F43" location="'Rules'!A162" display="SD1082"/>
-    <hyperlink ref="G43" location="'Rules'!A162" display="FDAC036"/>
-    <hyperlink ref="F46" location="'Rules'!A213" display="SD1215"/>
-    <hyperlink ref="G46" location="'Rules'!A213" display="FDAC237"/>
-    <hyperlink ref="F47" location="'Rules'!A215" display="SD1217"/>
-    <hyperlink ref="G47" location="'Rules'!A215" display="FDAC240"/>
-    <hyperlink ref="F48" location="'Rules'!A217" display="SD1219"/>
-    <hyperlink ref="G48" location="'Rules'!A217" display="FDAC243"/>
-    <hyperlink ref="F49" location="'Rules'!A260" display="SD2208"/>
-    <hyperlink ref="G49" location="'Rules'!A260" display="FDAC252"/>
-    <hyperlink ref="F50" location="'Rules'!A268" display="SD2216"/>
-    <hyperlink ref="G50" location="'Rules'!A268" display="FDAC260"/>
-    <hyperlink ref="F51" location="'Rules'!A272" display="SD2221"/>
-    <hyperlink ref="G51" location="'Rules'!A272" display="FDAC281"/>
-    <hyperlink ref="F52" location="'Rules'!A273" display="SD2222"/>
-    <hyperlink ref="G52" location="'Rules'!A273" display="FDAC282"/>
-    <hyperlink ref="F53" location="'Rules'!A275" display="SD2224"/>
-    <hyperlink ref="G53" location="'Rules'!A275" display="FDAC288"/>
-    <hyperlink ref="F54" location="'Rules'!A276" display="SD2225"/>
-    <hyperlink ref="G54" location="'Rules'!A276" display="FDAC290"/>
-    <hyperlink ref="F55" location="'Rules'!A277" display="SD2226"/>
-    <hyperlink ref="G55" location="'Rules'!A277" display="FDAC291"/>
-    <hyperlink ref="F56" location="'Rules'!A278" display="SD2227"/>
-    <hyperlink ref="G56" location="'Rules'!A278" display="FDAC293"/>
-    <hyperlink ref="F57" location="'Rules'!A280" display="SD2229"/>
-    <hyperlink ref="G57" location="'Rules'!A280" display="FDAC295"/>
-    <hyperlink ref="F58" location="'Rules'!A281" display="SD2230"/>
-    <hyperlink ref="G58" location="'Rules'!A281" display="FDAC298"/>
-    <hyperlink ref="F59" location="'Rules'!A283" display="SD2232"/>
-    <hyperlink ref="G59" location="'Rules'!A283" display="FDAC300"/>
-    <hyperlink ref="F60" location="'Rules'!A284" display="SD2233"/>
-    <hyperlink ref="G60" location="'Rules'!A284" display="FDAC302"/>
-    <hyperlink ref="F61" location="'Rules'!A285" display="SD2234"/>
-    <hyperlink ref="G61" location="'Rules'!A285" display="FDAC304"/>
-    <hyperlink ref="F62" location="'Rules'!A286" display="SD2235"/>
-    <hyperlink ref="G62" location="'Rules'!A286" display="FDAC306"/>
-    <hyperlink ref="F63" location="'Rules'!A301" display="SD2253"/>
-    <hyperlink ref="G63" location="'Rules'!A301" display="FDAC267"/>
-    <hyperlink ref="F64" location="'Rules'!A160" display="SD1078"/>
-    <hyperlink ref="G64" location="'Rules'!A160" display="FDAC055"/>
-    <hyperlink ref="F65" location="'Rules'!A162" display="SD1082"/>
-    <hyperlink ref="G65" location="'Rules'!A162" display="FDAC036"/>
+    <hyperlink ref="F43" location="'Rules'!A6" display="CT2005"/>
+    <hyperlink ref="G43" location="'Rules'!A6" display="FDAC344"/>
+    <hyperlink ref="F44" location="'Rules'!A162" display="SD1082"/>
+    <hyperlink ref="G44" location="'Rules'!A162" display="FDAC036"/>
+    <hyperlink ref="F47" location="'Rules'!A213" display="SD1215"/>
+    <hyperlink ref="G47" location="'Rules'!A213" display="FDAC237"/>
+    <hyperlink ref="F48" location="'Rules'!A215" display="SD1217"/>
+    <hyperlink ref="G48" location="'Rules'!A215" display="FDAC240"/>
+    <hyperlink ref="F49" location="'Rules'!A217" display="SD1219"/>
+    <hyperlink ref="G49" location="'Rules'!A217" display="FDAC243"/>
+    <hyperlink ref="F50" location="'Rules'!A260" display="SD2208"/>
+    <hyperlink ref="G50" location="'Rules'!A260" display="FDAC252"/>
+    <hyperlink ref="F51" location="'Rules'!A268" display="SD2216"/>
+    <hyperlink ref="G51" location="'Rules'!A268" display="FDAC260"/>
+    <hyperlink ref="F52" location="'Rules'!A272" display="SD2221"/>
+    <hyperlink ref="G52" location="'Rules'!A272" display="FDAC281"/>
+    <hyperlink ref="F53" location="'Rules'!A273" display="SD2222"/>
+    <hyperlink ref="G53" location="'Rules'!A273" display="FDAC282"/>
+    <hyperlink ref="F54" location="'Rules'!A275" display="SD2224"/>
+    <hyperlink ref="G54" location="'Rules'!A275" display="FDAC288"/>
+    <hyperlink ref="F55" location="'Rules'!A276" display="SD2225"/>
+    <hyperlink ref="G55" location="'Rules'!A276" display="FDAC290"/>
+    <hyperlink ref="F56" location="'Rules'!A277" display="SD2226"/>
+    <hyperlink ref="G56" location="'Rules'!A277" display="FDAC291"/>
+    <hyperlink ref="F57" location="'Rules'!A278" display="SD2227"/>
+    <hyperlink ref="G57" location="'Rules'!A278" display="FDAC293"/>
+    <hyperlink ref="F58" location="'Rules'!A280" display="SD2229"/>
+    <hyperlink ref="G58" location="'Rules'!A280" display="FDAC295"/>
+    <hyperlink ref="F59" location="'Rules'!A281" display="SD2230"/>
+    <hyperlink ref="G59" location="'Rules'!A281" display="FDAC298"/>
+    <hyperlink ref="F60" location="'Rules'!A283" display="SD2232"/>
+    <hyperlink ref="G60" location="'Rules'!A283" display="FDAC300"/>
+    <hyperlink ref="F61" location="'Rules'!A284" display="SD2233"/>
+    <hyperlink ref="G61" location="'Rules'!A284" display="FDAC302"/>
+    <hyperlink ref="F62" location="'Rules'!A285" display="SD2234"/>
+    <hyperlink ref="G62" location="'Rules'!A285" display="FDAC304"/>
+    <hyperlink ref="F63" location="'Rules'!A286" display="SD2235"/>
+    <hyperlink ref="G63" location="'Rules'!A286" display="FDAC306"/>
+    <hyperlink ref="F64" location="'Rules'!A301" display="SD2253"/>
+    <hyperlink ref="G64" location="'Rules'!A301" display="FDAC267"/>
+    <hyperlink ref="F65" location="'Rules'!A160" display="SD1078"/>
+    <hyperlink ref="G65" location="'Rules'!A160" display="FDAC055"/>
+    <hyperlink ref="F66" location="'Rules'!A162" display="SD1082"/>
+    <hyperlink ref="G66" location="'Rules'!A162" display="FDAC036"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TDF_PSch_ReleaseNotes.xlsx
+++ b/TDF_PSch_ReleaseNotes.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="540" windowWidth="16935" windowHeight="7110"/>
+    <workbookView xWindow="270" yWindow="540" windowWidth="16935" windowHeight="7110" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Details" sheetId="3" r:id="rId1"/>
+    <sheet name="OpenQuestions" sheetId="4" r:id="rId1"/>
+    <sheet name="Details" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Details!$A$1:$M$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Details!$A$1:$M$73</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="246">
   <si>
     <t>Pinnacle 21 ID</t>
   </si>
@@ -544,9 +545,6 @@
     <t>InProgess</t>
   </si>
   <si>
-    <t>Look for a value that represents the concept in codelist</t>
-  </si>
-  <si>
     <t>Change label to "Planned Order of Element within Arm"</t>
   </si>
   <si>
@@ -572,13 +570,202 @@
   </si>
   <si>
     <t>The element FOLO / Follow_up was defined in TE but not used in any of the ARMs in TA</t>
+  </si>
+  <si>
+    <t>added column to the dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix value to be NULL and add the TSVALNF (null flavor) column </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix value </t>
+  </si>
+  <si>
+    <t>Replace with correct value PHASE II TRIAL</t>
+  </si>
+  <si>
+    <t>Add missing parameter</t>
+  </si>
+  <si>
+    <t>Add missing parameter, set TSVAL = N</t>
+  </si>
+  <si>
+    <t>Removed COMPTRT replaced with (existing) TCNTRL record and set TSVAL, TSVALCD accordingly for PLACEBO</t>
+  </si>
+  <si>
+    <t>Set TSVAL = "QD"</t>
+  </si>
+  <si>
+    <t>Suggest not to fix this but use it as an example for extending the codelist</t>
+  </si>
+  <si>
+    <t>Add missing parameter, set TSVAL=USA</t>
+  </si>
+  <si>
+    <t>Add missing parameter, set TSVAL=N</t>
+  </si>
+  <si>
+    <t>Add missing parameter, set TSVAL=254</t>
+  </si>
+  <si>
+    <t>Add missing parameter, set TSVAL=3</t>
+  </si>
+  <si>
+    <t>TSPARMCD, TSVCDREF</t>
+  </si>
+  <si>
+    <t>INDIC, null</t>
+  </si>
+  <si>
+    <t>SD2240</t>
+  </si>
+  <si>
+    <t>FDAC275</t>
+  </si>
+  <si>
+    <t>Invalid TSVCDREF value for INDIC</t>
+  </si>
+  <si>
+    <t>CURTRT, null</t>
+  </si>
+  <si>
+    <t>SD2241</t>
+  </si>
+  <si>
+    <t>FDAC264</t>
+  </si>
+  <si>
+    <t>Invalid TSVCDREF value for CURTRT</t>
+  </si>
+  <si>
+    <t>PCLAS, null</t>
+  </si>
+  <si>
+    <t>SD2243</t>
+  </si>
+  <si>
+    <t>FDAC287</t>
+  </si>
+  <si>
+    <t>Invalid TSVCDREF value for PCLAS</t>
+  </si>
+  <si>
+    <t>null, DCUTDTC</t>
+  </si>
+  <si>
+    <t>SD2245</t>
+  </si>
+  <si>
+    <t>FDAC292</t>
+  </si>
+  <si>
+    <t>Invalid TSVAL value for DCUTDTC</t>
+  </si>
+  <si>
+    <t>Missing TSVAL for Parameter</t>
+  </si>
+  <si>
+    <t>TSVAL</t>
+  </si>
+  <si>
+    <t>Missing TSVAL value</t>
+  </si>
+  <si>
+    <t>Comment/Question</t>
+  </si>
+  <si>
+    <t>PCLAS</t>
+  </si>
+  <si>
+    <t>Current Therapy or Treatment</t>
+  </si>
+  <si>
+    <t>The literal identifier of the therapy or medication that is currently being given per protocol.</t>
+  </si>
+  <si>
+    <t>Data Cutoff Description</t>
+  </si>
+  <si>
+    <t>Text that describes the cutoff date.</t>
+  </si>
+  <si>
+    <t>Data Cutoff Date</t>
+  </si>
+  <si>
+    <t>A date which indicates any data collected by this date will be used for analysis.</t>
+  </si>
+  <si>
+    <t>Error/Warning</t>
+  </si>
+  <si>
+    <t>Missing TSVAL value
+Invalid TSVCDREF value for PCLAS</t>
+  </si>
+  <si>
+    <t>INDIC</t>
+  </si>
+  <si>
+    <t>Registry Identifier</t>
+  </si>
+  <si>
+    <t>Primary Outcome Measurement</t>
+  </si>
+  <si>
+    <t>Trial Indication</t>
+  </si>
+  <si>
+    <t>Study Stop Rule</t>
+  </si>
+  <si>
+    <t>Pharmacologic Class</t>
+  </si>
+  <si>
+    <t>if no TSVAL, I will set TSVALNF accordingly</t>
+  </si>
+  <si>
+    <t>Mild to Moderate Alzheimer's Disease</t>
+  </si>
+  <si>
+    <t>This is the existing value. I looked in NDF-RT for a code, but could only find a variety of Alzheimer code. I suggest we just pick one that seems to be close enough, right?</t>
+  </si>
+  <si>
+    <t>NCT00987090</t>
+  </si>
+  <si>
+    <t>Add missing parameter, set TSVAL=NCT00987090 and other values accordingly. This is a different study that resembles the Pilot study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add missing parameter, used a meaningful text for TSVAL </t>
+  </si>
+  <si>
+    <t>Two alternatives (implemented option 1.):
+1. for ADDON set TSVAL="N", then CURTRT is not required
+2. leave TSVAL="Y" for ADDON and add the trial treatment as value for CURTRT.</t>
+  </si>
+  <si>
+    <t>see above</t>
+  </si>
+  <si>
+    <t>Set TSVAL to a date after the end date of the study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set TSVAL = "Acetylcholine Release Inhibitor" and other variables accordingly. Might not be correct, but could not find the EPC value and code for Xanomeline in NDF-RT  </t>
+  </si>
+  <si>
+    <t>set to SNOMED and adjusted the TSVAL value to match the SNOMED entry</t>
+  </si>
+  <si>
+    <t>Add missing parameter and set to a date after the end of the study</t>
+  </si>
+  <si>
+    <t>Add missing parameter, searched for value in NDF-RT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -600,6 +787,33 @@
       <sz val="10"/>
       <color rgb="FF215867"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF215867"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -627,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -638,9 +852,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -649,6 +860,55 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,1383 +1204,1565 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36" style="5" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="23.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.28515625" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="10" customFormat="1" ht="60">
+      <c r="A2" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" ht="45">
+      <c r="A4" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="G4" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5">
+      <c r="A6" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="25.5">
+      <c r="A7" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="G7" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="G8" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="38.25">
+      <c r="A9" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="D11" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="14" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36" style="15" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="15" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="14" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="30">
-      <c r="A3" s="6" t="s">
+      <c r="L2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="30">
-      <c r="A4" s="6" t="s">
+      <c r="L3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="30">
-      <c r="A5" s="6" t="s">
+      <c r="L4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="J5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="30">
-      <c r="A6" s="6" t="s">
+      <c r="L5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A6" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30">
-      <c r="A7" s="6" t="s">
+      <c r="L6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="J7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="30">
-      <c r="A8" s="6" t="s">
+      <c r="L7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="J8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="45">
-      <c r="A9" s="6" t="s">
+      <c r="L8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="45">
+      <c r="A9" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>21</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="45">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="45">
+      <c r="A10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>39</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="45">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:13" s="4" customFormat="1" ht="45">
+      <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>70</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="45">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="45">
+      <c r="A12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>114</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="45">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="45">
+      <c r="A13" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>138</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="45">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:13" s="4" customFormat="1" ht="45">
+      <c r="A14" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>140</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="45">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:13" s="4" customFormat="1" ht="45">
+      <c r="A15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>154</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="45">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:13" s="4" customFormat="1" ht="45">
+      <c r="A16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>178</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="45">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:13" s="4" customFormat="1" ht="45">
+      <c r="A17" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>180</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="45">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:13" s="4" customFormat="1" ht="45">
+      <c r="A18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>230</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="45">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:13" s="4" customFormat="1" ht="45">
+      <c r="A19" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>245</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="45">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:13" s="4" customFormat="1" ht="45">
+      <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>261</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="30">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A21" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="4" customFormat="1" ht="45">
+      <c r="A22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="4" customFormat="1" ht="45">
+      <c r="A23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5">
+        <v>5</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A27" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="4" customFormat="1" ht="60">
+      <c r="A29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A30" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A31" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A34" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="4" customFormat="1" ht="25.5">
+      <c r="A35" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="L21" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="45">
-      <c r="A22" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6">
-        <v>3</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="45">
-      <c r="A23" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6">
-        <v>5</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="30">
-      <c r="A24" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
+      <c r="L35" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G36" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H36" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" s="5" t="s">
+      <c r="J36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="L24" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="30">
-      <c r="A25" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="30">
-      <c r="A26" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="30">
-      <c r="A27" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="30">
-      <c r="A28" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="60">
-      <c r="A29" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="30">
-      <c r="A30" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="30">
-      <c r="A31" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="30">
-      <c r="A32" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="30">
-      <c r="A33" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="30">
-      <c r="A34" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="25.5">
-      <c r="A35" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="30">
-      <c r="A36" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M36" s="5" t="s">
+      <c r="L36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M36" s="4" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2351,6 +2793,15 @@
       <c r="J37" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K37" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="38" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A38" s="1" t="s">
@@ -2379,6 +2830,15 @@
       <c r="J38" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K38" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="39" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A39" s="1" t="s">
@@ -2407,71 +2867,92 @@
       <c r="J39" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" s="2" customFormat="1" ht="51.75">
-      <c r="A40" s="1" t="s">
+      <c r="K39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="51">
+      <c r="A40" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16">
         <v>2</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="2" customFormat="1" ht="51.75">
-      <c r="A41" s="1" t="s">
+      <c r="K40" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="51">
+      <c r="A41" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1">
+      <c r="B41" s="16"/>
+      <c r="C41" s="16">
         <v>2</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K41" s="2" t="s">
-        <v>175</v>
+      <c r="K41" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="2" customFormat="1" ht="51.75">
@@ -2504,7 +2985,13 @@
         <v>9</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>175</v>
+        <v>191</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="2" customFormat="1" ht="51.75">
@@ -2537,112 +3024,127 @@
         <v>9</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="30">
-      <c r="A44" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A44" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I44" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J44" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K44" s="5" t="s">
+      <c r="J44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="L44" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="30">
-      <c r="A45" s="6" t="s">
+      <c r="L44" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A45" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6" t="s">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J45" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K45" s="5" t="s">
+      <c r="J45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="L45" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="30">
-      <c r="A46" s="6" t="s">
+      <c r="L45" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A46" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6" t="s">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I46" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K46" s="5" t="s">
+      <c r="J46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="L46" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="2" customFormat="1" ht="26.25">
+      <c r="L46" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="2" customFormat="1" ht="30">
       <c r="A47" s="1" t="s">
         <v>120</v>
       </c>
@@ -2671,6 +3173,15 @@
       <c r="J47" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="K47" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="48" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A48" s="1" t="s">
@@ -2701,8 +3212,14 @@
       <c r="J48" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" s="2" customFormat="1" ht="26.25">
+      <c r="K48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A49" s="1" t="s">
         <v>120</v>
       </c>
@@ -2731,120 +3248,162 @@
       <c r="J49" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" s="2" customFormat="1" ht="26.25">
-      <c r="A50" s="1" t="s">
+      <c r="K49" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="30">
+      <c r="A50" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1" t="s">
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="2" customFormat="1" ht="26.25">
-      <c r="A51" s="1" t="s">
+      <c r="J50" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L50" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M50" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="105">
+      <c r="A51" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1" t="s">
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="2" customFormat="1" ht="26.25">
-      <c r="A52" s="1" t="s">
+      <c r="J51" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="L51" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="60">
+      <c r="A52" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1" t="s">
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" s="16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" s="2" customFormat="1" ht="26.25">
-      <c r="A53" s="1" t="s">
+      <c r="K52" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="L52" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M52" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="30">
+      <c r="A53" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1" t="s">
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J53" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="2" customFormat="1" ht="26.25">
+      <c r="J53" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M53" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="2" customFormat="1" ht="30">
       <c r="A54" s="1" t="s">
         <v>120</v>
       </c>
@@ -2871,8 +3430,17 @@
       <c r="J54" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" s="2" customFormat="1" ht="26.25">
+      <c r="K54" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A55" s="1" t="s">
         <v>120</v>
       </c>
@@ -2899,64 +3467,91 @@
       <c r="J55" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" s="2" customFormat="1" ht="26.25">
-      <c r="A56" s="1" t="s">
+      <c r="K55" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="30">
+      <c r="A56" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1" t="s">
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="2" customFormat="1" ht="26.25">
-      <c r="A57" s="1" t="s">
+      <c r="J56" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M56" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="30">
+      <c r="A57" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1" t="s">
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="2" customFormat="1" ht="26.25">
+      <c r="J57" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M57" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A58" s="1" t="s">
         <v>120</v>
       </c>
@@ -2983,8 +3578,17 @@
       <c r="J58" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" s="2" customFormat="1" ht="26.25">
+      <c r="K58" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A59" s="1" t="s">
         <v>120</v>
       </c>
@@ -3011,8 +3615,17 @@
       <c r="J59" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" s="2" customFormat="1" ht="26.25">
+      <c r="K59" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A60" s="1" t="s">
         <v>120</v>
       </c>
@@ -3039,8 +3652,17 @@
       <c r="J60" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" s="2" customFormat="1" ht="26.25">
+      <c r="K60" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -3067,8 +3689,17 @@
       <c r="J61" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" s="2" customFormat="1" ht="26.25">
+      <c r="K61" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
@@ -3095,8 +3726,17 @@
       <c r="J62" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" s="2" customFormat="1" ht="26.25">
+      <c r="K62" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A63" s="1" t="s">
         <v>120</v>
       </c>
@@ -3123,8 +3763,17 @@
       <c r="J63" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" s="2" customFormat="1" ht="26.25">
+      <c r="K63" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="2" customFormat="1" ht="60">
       <c r="A64" s="1" t="s">
         <v>120</v>
       </c>
@@ -3153,157 +3802,359 @@
       <c r="J64" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="60">
-      <c r="A65" s="6" t="s">
+      <c r="K64" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="4" customFormat="1" ht="60">
+      <c r="A65" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6" t="s">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="H65" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I65" s="6" t="s">
+      <c r="I65" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J65" s="6" t="s">
+      <c r="J65" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K65" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="L65" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M65" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="30">
-      <c r="A66" s="6" t="s">
+      <c r="K65" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A66" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6" t="s">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H66" s="6" t="s">
+      <c r="H66" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I66" s="6" t="s">
+      <c r="I66" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J66" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K66" s="5" t="s">
+      <c r="J66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="L66" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M66" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="30">
-      <c r="A67" s="6" t="s">
+      <c r="L66" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A67" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6" t="s">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="H67" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I67" s="6" t="s">
+      <c r="I67" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J67" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K67" s="5" t="s">
+      <c r="J67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="L67" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M67" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="30">
-      <c r="A68" s="6" t="s">
+      <c r="L67" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="4" customFormat="1" ht="30">
+      <c r="A68" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6" t="s">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="H68" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I68" s="6" t="s">
+      <c r="I68" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J68" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K68" s="5" t="s">
+      <c r="J68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="L68" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M68" s="5" t="s">
+      <c r="L68" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="36" customHeight="1">
+      <c r="A69" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K69" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="L69" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M69" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="20" customFormat="1" ht="45">
+      <c r="A70" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="18">
+        <v>13</v>
+      </c>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K70" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="L70" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M70" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="20" customFormat="1" ht="25.5">
+      <c r="A71" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="18">
+        <v>34</v>
+      </c>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="G71" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K71" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="L71" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M71" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="20" customFormat="1" ht="75">
+      <c r="A72" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="18">
+        <v>49</v>
+      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K72" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="L72" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M72" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="20" customFormat="1" ht="30">
+      <c r="A73" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="18">
+        <v>39</v>
+      </c>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="I73" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K73" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="L73" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M73" s="20" t="s">
         <v>173</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M68">
+  <autoFilter ref="A1:M73">
     <filterColumn colId="0"/>
     <filterColumn colId="3"/>
     <filterColumn colId="12"/>
@@ -3381,6 +4232,16 @@
     <hyperlink ref="G65" location="'Rules'!A160" display="FDAC055"/>
     <hyperlink ref="F66" location="'Rules'!A162" display="SD1082"/>
     <hyperlink ref="G66" location="'Rules'!A162" display="FDAC036"/>
+    <hyperlink ref="F70" location="'Rules'!A288" display="SD2240"/>
+    <hyperlink ref="G70" location="'Rules'!A288" display="FDAC275"/>
+    <hyperlink ref="F71" location="'Rules'!A289" display="SD2241"/>
+    <hyperlink ref="G71" location="'Rules'!A289" display="FDAC264"/>
+    <hyperlink ref="F72" location="'Rules'!A291" display="SD2243"/>
+    <hyperlink ref="G72" location="'Rules'!A291" display="FDAC287"/>
+    <hyperlink ref="F73" location="'Rules'!A293" display="SD2245"/>
+    <hyperlink ref="G73" location="'Rules'!A293" display="FDAC292"/>
+    <hyperlink ref="F69" location="'Rules'!A284" display="SD2233"/>
+    <hyperlink ref="G69" location="'Rules'!A284" display="FDAC302"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TDF_PSch_ReleaseNotes.xlsx
+++ b/TDF_PSch_ReleaseNotes.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="540" windowWidth="16935" windowHeight="7110" activeTab="1"/>
+    <workbookView xWindow="270" yWindow="540" windowWidth="16935" windowHeight="7110"/>
   </bookViews>
   <sheets>
-    <sheet name="OpenQuestions" sheetId="4" r:id="rId1"/>
-    <sheet name="Details" sheetId="3" r:id="rId2"/>
+    <sheet name="Details" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Details!$A$1:$M$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Details!$A$1:$M$145</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="276">
   <si>
     <t>Pinnacle 21 ID</t>
   </si>
@@ -663,73 +662,6 @@
   </si>
   <si>
     <t>Missing TSVAL for Parameter</t>
-  </si>
-  <si>
-    <t>TSVAL</t>
-  </si>
-  <si>
-    <t>Missing TSVAL value</t>
-  </si>
-  <si>
-    <t>Comment/Question</t>
-  </si>
-  <si>
-    <t>PCLAS</t>
-  </si>
-  <si>
-    <t>Current Therapy or Treatment</t>
-  </si>
-  <si>
-    <t>The literal identifier of the therapy or medication that is currently being given per protocol.</t>
-  </si>
-  <si>
-    <t>Data Cutoff Description</t>
-  </si>
-  <si>
-    <t>Text that describes the cutoff date.</t>
-  </si>
-  <si>
-    <t>Data Cutoff Date</t>
-  </si>
-  <si>
-    <t>A date which indicates any data collected by this date will be used for analysis.</t>
-  </si>
-  <si>
-    <t>Error/Warning</t>
-  </si>
-  <si>
-    <t>Missing TSVAL value
-Invalid TSVCDREF value for PCLAS</t>
-  </si>
-  <si>
-    <t>INDIC</t>
-  </si>
-  <si>
-    <t>Registry Identifier</t>
-  </si>
-  <si>
-    <t>Primary Outcome Measurement</t>
-  </si>
-  <si>
-    <t>Trial Indication</t>
-  </si>
-  <si>
-    <t>Study Stop Rule</t>
-  </si>
-  <si>
-    <t>Pharmacologic Class</t>
-  </si>
-  <si>
-    <t>if no TSVAL, I will set TSVALNF accordingly</t>
-  </si>
-  <si>
-    <t>Mild to Moderate Alzheimer's Disease</t>
-  </si>
-  <si>
-    <t>This is the existing value. I looked in NDF-RT for a code, but could only find a variety of Alzheimer code. I suggest we just pick one that seems to be close enough, right?</t>
-  </si>
-  <si>
-    <t>NCT00987090</t>
   </si>
   <si>
     <t>Add missing parameter, set TSVAL=NCT00987090 and other values accordingly. This is a different study that resembles the Pilot study</t>
@@ -759,13 +691,169 @@
   </si>
   <si>
     <t>Add missing parameter, searched for value in NDF-RT</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>VISITNUM</t>
+  </si>
+  <si>
+    <t>SD1076</t>
+  </si>
+  <si>
+    <t>FDAC031</t>
+  </si>
+  <si>
+    <t>Model permissible variable added into standard domain</t>
+  </si>
+  <si>
+    <t>VISIT</t>
+  </si>
+  <si>
+    <t>VARIABLE, DATASET</t>
+  </si>
+  <si>
+    <t>EPOCH, DS</t>
+  </si>
+  <si>
+    <t>SD1077</t>
+  </si>
+  <si>
+    <t>FDAC021</t>
+  </si>
+  <si>
+    <t>FDA Expected variable EPOCH not found</t>
+  </si>
+  <si>
+    <t>DSDY</t>
+  </si>
+  <si>
+    <t>SD1083</t>
+  </si>
+  <si>
+    <t>FDAC124</t>
+  </si>
+  <si>
+    <t>Missing DSDY variable, when DSDTC variable is present</t>
+  </si>
+  <si>
+    <t>DSCAT, DSDECOD</t>
+  </si>
+  <si>
+    <t>DISPOSITION EVENT, PROTOCOL VIOLATION</t>
+  </si>
+  <si>
+    <t>DSDECOD value not found in 'Completion/Reason for Non-Completion' extensible codelist when DSCAT == 'DISPOSITION EVENT'</t>
+  </si>
+  <si>
+    <t>DSSPID</t>
+  </si>
+  <si>
+    <t>[1 spaces]7</t>
+  </si>
+  <si>
+    <t>SD1021</t>
+  </si>
+  <si>
+    <t>FDAC216</t>
+  </si>
+  <si>
+    <t>Unexpected character value in DSSPID variable</t>
+  </si>
+  <si>
+    <t>[1 spaces]8</t>
+  </si>
+  <si>
+    <t>[1 spaces]1</t>
+  </si>
+  <si>
+    <t>[1 spaces]9</t>
+  </si>
+  <si>
+    <t>[1 spaces]5</t>
+  </si>
+  <si>
+    <t>[1 spaces]3</t>
+  </si>
+  <si>
+    <t>[1 spaces]6</t>
+  </si>
+  <si>
+    <t>[1 spaces]4</t>
+  </si>
+  <si>
+    <t>[1 spaces]2</t>
+  </si>
+  <si>
+    <t>VISIT, 2</t>
+  </si>
+  <si>
+    <t>DSDTC, 3</t>
+  </si>
+  <si>
+    <t>DSDECOD, 36</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>EPOCH, SE</t>
+  </si>
+  <si>
+    <t>SESTDY</t>
+  </si>
+  <si>
+    <t>SD1087</t>
+  </si>
+  <si>
+    <t>FDAC128</t>
+  </si>
+  <si>
+    <t>Missing SESTDY variable, when SESTDTC variable is present</t>
+  </si>
+  <si>
+    <t>SEENDY</t>
+  </si>
+  <si>
+    <t>SD1091</t>
+  </si>
+  <si>
+    <t>FDAC132</t>
+  </si>
+  <si>
+    <t>Missing SEENDY variable, when SEENDTC variable is present</t>
+  </si>
+  <si>
+    <t>SEUPDES, 174</t>
+  </si>
+  <si>
+    <t>ETCD, 194</t>
+  </si>
+  <si>
+    <t>remove the blank</t>
+  </si>
+  <si>
+    <t>Add EPOCH</t>
+  </si>
+  <si>
+    <t>check for values in controlled terminology</t>
+  </si>
+  <si>
+    <t>Add DSDY</t>
+  </si>
+  <si>
+    <t>Add SESTDY</t>
+  </si>
+  <si>
+    <t>Add SEENDY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -800,21 +888,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -841,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -860,34 +933,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -908,6 +953,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1204,257 +1252,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.28515625" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="10" customFormat="1" ht="60">
-      <c r="A2" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" ht="45">
-      <c r="A4" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="G4" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="25.5">
-      <c r="A6" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" ht="25.5">
-      <c r="A7" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="G7" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="G8" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="38.25">
-      <c r="A9" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="D11" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M73"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="M141" sqref="M141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="15" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="14" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36" style="15" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="15" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="9" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A2" s="5" t="s">
         <v>89</v>
       </c>
@@ -1491,7 +1358,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A3" s="5" t="s">
         <v>89</v>
       </c>
@@ -1528,7 +1395,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A4" s="5" t="s">
         <v>89</v>
       </c>
@@ -1565,7 +1432,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A5" s="5" t="s">
         <v>89</v>
       </c>
@@ -1602,7 +1469,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A6" s="5" t="s">
         <v>89</v>
       </c>
@@ -1639,7 +1506,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A7" s="5" t="s">
         <v>89</v>
       </c>
@@ -1676,7 +1543,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A8" s="5" t="s">
         <v>89</v>
       </c>
@@ -1713,7 +1580,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
       <c r="A9" s="5" t="s">
         <v>89</v>
       </c>
@@ -1752,7 +1619,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="45">
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
       <c r="A10" s="5" t="s">
         <v>89</v>
       </c>
@@ -1791,7 +1658,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" ht="45">
+    <row r="11" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
       <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
@@ -1830,7 +1697,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="45">
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
       <c r="A12" s="5" t="s">
         <v>89</v>
       </c>
@@ -1869,7 +1736,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" ht="45">
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
       <c r="A13" s="5" t="s">
         <v>89</v>
       </c>
@@ -1908,7 +1775,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" ht="45">
+    <row r="14" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
       <c r="A14" s="5" t="s">
         <v>89</v>
       </c>
@@ -1947,7 +1814,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
       <c r="A15" s="5" t="s">
         <v>89</v>
       </c>
@@ -1986,7 +1853,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" ht="45">
+    <row r="16" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
       <c r="A16" s="5" t="s">
         <v>89</v>
       </c>
@@ -2025,7 +1892,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="4" customFormat="1" ht="45">
+    <row r="17" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
       <c r="A17" s="5" t="s">
         <v>89</v>
       </c>
@@ -2064,7 +1931,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" ht="45">
+    <row r="18" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
       <c r="A18" s="5" t="s">
         <v>89</v>
       </c>
@@ -2103,7 +1970,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" ht="45">
+    <row r="19" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
       <c r="A19" s="5" t="s">
         <v>89</v>
       </c>
@@ -2142,7 +2009,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" ht="45">
+    <row r="20" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -2181,7 +2048,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="21" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A21" s="5" t="s">
         <v>100</v>
       </c>
@@ -2218,7 +2085,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" ht="45">
+    <row r="22" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
       <c r="A22" s="5" t="s">
         <v>100</v>
       </c>
@@ -2257,7 +2124,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" ht="45">
+    <row r="23" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
       <c r="A23" s="5" t="s">
         <v>100</v>
       </c>
@@ -2296,7 +2163,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="24" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A24" s="5" t="s">
         <v>100</v>
       </c>
@@ -2333,7 +2200,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="25" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A25" s="5" t="s">
         <v>100</v>
       </c>
@@ -2370,7 +2237,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="26" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A26" s="5" t="s">
         <v>100</v>
       </c>
@@ -2407,7 +2274,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="27" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A27" s="5" t="s">
         <v>100</v>
       </c>
@@ -2444,7 +2311,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="28" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A28" s="5" t="s">
         <v>100</v>
       </c>
@@ -2481,7 +2348,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="4" customFormat="1" ht="60">
+    <row r="29" spans="1:13" s="4" customFormat="1" ht="60" hidden="1">
       <c r="A29" s="4" t="s">
         <v>100</v>
       </c>
@@ -2507,7 +2374,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="30" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A30" s="5" t="s">
         <v>112</v>
       </c>
@@ -2544,7 +2411,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="31" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A31" s="5" t="s">
         <v>112</v>
       </c>
@@ -2581,7 +2448,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="32" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A32" s="5" t="s">
         <v>112</v>
       </c>
@@ -2618,7 +2485,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="33" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A33" s="5" t="s">
         <v>112</v>
       </c>
@@ -2655,7 +2522,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="34" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A34" s="5" t="s">
         <v>112</v>
       </c>
@@ -2692,7 +2559,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="4" customFormat="1" ht="25.5">
+    <row r="35" spans="1:13" s="4" customFormat="1" ht="25.5" hidden="1">
       <c r="A35" s="5" t="s">
         <v>116</v>
       </c>
@@ -2729,7 +2596,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="36" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A36" s="5" t="s">
         <v>116</v>
       </c>
@@ -2766,7 +2633,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="2" customFormat="1" ht="26.25">
+    <row r="37" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
       <c r="A37" s="1" t="s">
         <v>120</v>
       </c>
@@ -2803,7 +2670,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="2" customFormat="1" ht="26.25">
+    <row r="38" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
       <c r="A38" s="1" t="s">
         <v>120</v>
       </c>
@@ -2840,7 +2707,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="2" customFormat="1" ht="26.25">
+    <row r="39" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
       <c r="A39" s="1" t="s">
         <v>120</v>
       </c>
@@ -2877,85 +2744,85 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="51">
-      <c r="A40" s="16" t="s">
+    <row r="40" spans="1:13" ht="51" hidden="1">
+      <c r="A40" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9">
         <v>2</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="I40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K40" s="15" t="s">
+      <c r="J40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="L40" s="15" t="s">
+      <c r="L40" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="M40" s="15" t="s">
+      <c r="M40" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="51">
-      <c r="A41" s="16" t="s">
+    <row r="41" spans="1:13" ht="51" hidden="1">
+      <c r="A41" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9">
         <v>2</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="I41" s="16" t="s">
+      <c r="I41" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J41" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K41" s="15" t="s">
+      <c r="J41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="L41" s="15" t="s">
+      <c r="L41" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="M41" s="15" t="s">
+      <c r="M41" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="2" customFormat="1" ht="51.75">
+    <row r="42" spans="1:13" s="2" customFormat="1" ht="51.75" hidden="1">
       <c r="A42" s="1" t="s">
         <v>120</v>
       </c>
@@ -2994,7 +2861,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="2" customFormat="1" ht="51.75">
+    <row r="43" spans="1:13" s="2" customFormat="1" ht="51.75" hidden="1">
       <c r="A43" s="1" t="s">
         <v>120</v>
       </c>
@@ -3033,7 +2900,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="44" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A44" s="5" t="s">
         <v>120</v>
       </c>
@@ -3070,7 +2937,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="45" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A45" s="5" t="s">
         <v>120</v>
       </c>
@@ -3107,7 +2974,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="46" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A46" s="5" t="s">
         <v>120</v>
       </c>
@@ -3144,7 +3011,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="2" customFormat="1" ht="30">
+    <row r="47" spans="1:13" s="2" customFormat="1" ht="30" hidden="1">
       <c r="A47" s="1" t="s">
         <v>120</v>
       </c>
@@ -3183,7 +3050,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="2" customFormat="1" ht="26.25">
+    <row r="48" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
       <c r="A48" s="1" t="s">
         <v>120</v>
       </c>
@@ -3219,7 +3086,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="2" customFormat="1" ht="26.25">
+    <row r="49" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
       <c r="A49" s="1" t="s">
         <v>120</v>
       </c>
@@ -3255,155 +3122,155 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="30">
-      <c r="A50" s="16" t="s">
+    <row r="50" spans="1:13" ht="30" hidden="1">
+      <c r="A50" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16" t="s">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="H50" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I50" s="16" t="s">
+      <c r="I50" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J50" s="16" t="s">
+      <c r="J50" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K50" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="L50" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="M50" s="15" t="s">
+      <c r="K50" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M50" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="105">
-      <c r="A51" s="16" t="s">
+    <row r="51" spans="1:13" ht="105" hidden="1">
+      <c r="A51" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16" t="s">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G51" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H51" s="16" t="s">
+      <c r="H51" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I51" s="16" t="s">
+      <c r="I51" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="16" t="s">
+      <c r="J51" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K51" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="L51" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="M51" s="15" t="s">
+      <c r="K51" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M51" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="60">
-      <c r="A52" s="16" t="s">
+    <row r="52" spans="1:13" ht="60" hidden="1">
+      <c r="A52" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16" t="s">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G52" s="17" t="s">
+      <c r="G52" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H52" s="16" t="s">
+      <c r="H52" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I52" s="16" t="s">
+      <c r="I52" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J52" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K52" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="L52" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="M52" s="15" t="s">
+      <c r="J52" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M52" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="30">
-      <c r="A53" s="16" t="s">
+    <row r="53" spans="1:13" ht="30" hidden="1">
+      <c r="A53" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16" t="s">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="G53" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="16" t="s">
+      <c r="H53" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I53" s="16" t="s">
+      <c r="I53" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J53" s="16" t="s">
+      <c r="J53" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K53" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="L53" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="M53" s="15" t="s">
+      <c r="K53" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M53" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="2" customFormat="1" ht="30">
+    <row r="54" spans="1:13" s="2" customFormat="1" ht="30" hidden="1">
       <c r="A54" s="1" t="s">
         <v>120</v>
       </c>
@@ -3440,7 +3307,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="2" customFormat="1" ht="26.25">
+    <row r="55" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
       <c r="A55" s="1" t="s">
         <v>120</v>
       </c>
@@ -3477,81 +3344,81 @@
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="30">
-      <c r="A56" s="16" t="s">
+    <row r="56" spans="1:13" ht="30" hidden="1">
+      <c r="A56" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16" t="s">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="F56" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G56" s="17" t="s">
+      <c r="G56" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="16" t="s">
+      <c r="H56" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="16" t="s">
+      <c r="I56" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J56" s="16" t="s">
+      <c r="J56" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K56" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="L56" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="M56" s="15" t="s">
+      <c r="K56" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M56" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="30">
-      <c r="A57" s="16" t="s">
+    <row r="57" spans="1:13" ht="30" hidden="1">
+      <c r="A57" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16" t="s">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="17" t="s">
+      <c r="F57" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G57" s="17" t="s">
+      <c r="G57" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H57" s="16" t="s">
+      <c r="H57" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I57" s="16" t="s">
+      <c r="I57" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J57" s="16" t="s">
+      <c r="J57" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K57" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="L57" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="M57" s="15" t="s">
+      <c r="K57" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M57" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="2" customFormat="1" ht="26.25">
+    <row r="58" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
       <c r="A58" s="1" t="s">
         <v>120</v>
       </c>
@@ -3588,7 +3455,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="2" customFormat="1" ht="26.25">
+    <row r="59" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
       <c r="A59" s="1" t="s">
         <v>120</v>
       </c>
@@ -3625,7 +3492,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="2" customFormat="1" ht="26.25">
+    <row r="60" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
       <c r="A60" s="1" t="s">
         <v>120</v>
       </c>
@@ -3662,7 +3529,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="2" customFormat="1" ht="26.25">
+    <row r="61" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -3699,7 +3566,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="2" customFormat="1" ht="26.25">
+    <row r="62" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
       <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
@@ -3736,7 +3603,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="2" customFormat="1" ht="26.25">
+    <row r="63" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
       <c r="A63" s="1" t="s">
         <v>120</v>
       </c>
@@ -3773,7 +3640,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="2" customFormat="1" ht="60">
+    <row r="64" spans="1:13" s="2" customFormat="1" ht="60" hidden="1">
       <c r="A64" s="1" t="s">
         <v>120</v>
       </c>
@@ -3812,7 +3679,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="4" customFormat="1" ht="60">
+    <row r="65" spans="1:13" s="4" customFormat="1" ht="60" hidden="1">
       <c r="A65" s="5" t="s">
         <v>161</v>
       </c>
@@ -3849,7 +3716,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="66" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A66" s="5" t="s">
         <v>161</v>
       </c>
@@ -3886,7 +3753,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="67" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A67" s="5" t="s">
         <v>161</v>
       </c>
@@ -3923,7 +3790,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="4" customFormat="1" ht="30">
+    <row r="68" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
       <c r="A68" s="5" t="s">
         <v>161</v>
       </c>
@@ -3960,202 +3827,2778 @@
         <v>173</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="36" customHeight="1">
-      <c r="A69" s="16" t="s">
+    <row r="69" spans="1:13" ht="36" hidden="1" customHeight="1">
+      <c r="A69" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16" t="s">
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="F69" s="17" t="s">
+      <c r="F69" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G69" s="17" t="s">
+      <c r="G69" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H69" s="18" t="s">
+      <c r="H69" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="I69" s="16" t="s">
+      <c r="I69" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J69" s="16" t="s">
+      <c r="J69" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K69" s="15" t="s">
+      <c r="K69" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="13" customFormat="1" ht="45" hidden="1">
+      <c r="A70" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="11">
+        <v>13</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M70" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A71" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="11">
+        <v>34</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M71" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="13" customFormat="1" ht="75" hidden="1">
+      <c r="A72" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="11">
+        <v>49</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M72" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="13" customFormat="1" ht="30" hidden="1">
+      <c r="A73" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="11">
+        <v>39</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M73" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A74" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A75" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A76" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="13" customFormat="1" ht="38.25" hidden="1">
+      <c r="A77" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" s="13" customFormat="1" ht="63.75" hidden="1">
+      <c r="A78" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9">
+        <v>6</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A79" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B79" s="9">
+        <v>40</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="G79" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="L69" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="M69" s="15" t="s">
+      <c r="H79" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A80" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B80" s="9">
+        <v>109</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A81" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" s="9">
+        <v>111</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A82" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82" s="9">
+        <v>123</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A83" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B83" s="9">
+        <v>142</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A84" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B84" s="9">
+        <v>146</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A85" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B85" s="9">
+        <v>154</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A86" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B86" s="9">
+        <v>160</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L86" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A87" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" s="9">
+        <v>165</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A88" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B88" s="9">
+        <v>177</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L88" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A89" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" s="9">
+        <v>187</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A90" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B90" s="9">
+        <v>195</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L90" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A91" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B91" s="9">
+        <v>203</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A92" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B92" s="9">
+        <v>209</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K92" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L92" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A93" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B93" s="9">
+        <v>214</v>
+      </c>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K93" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A94" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B94" s="9">
+        <v>220</v>
+      </c>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K94" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L94" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A95" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B95" s="9">
+        <v>222</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A96" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B96" s="9">
+        <v>230</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K96" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L96" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A97" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B97" s="9">
+        <v>237</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A98" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" s="9">
+        <v>251</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K98" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L98" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A99" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B99" s="9">
+        <v>253</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A100" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B100" s="9">
+        <v>262</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K100" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L100" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A101" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B101" s="9">
+        <v>269</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A102" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B102" s="9">
+        <v>271</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K102" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L102" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A103" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B103" s="9">
+        <v>284</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K103" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L103" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A104" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B104" s="9">
+        <v>292</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K104" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L104" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A105" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B105" s="9">
+        <v>297</v>
+      </c>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K105" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L105" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A106" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B106" s="9">
+        <v>305</v>
+      </c>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L106" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A107" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B107" s="9">
+        <v>309</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A108" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B108" s="9">
+        <v>315</v>
+      </c>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K108" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L108" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A109" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B109" s="9">
+        <v>321</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K109" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A110" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B110" s="9">
+        <v>323</v>
+      </c>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K110" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L110" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A111" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B111" s="9">
+        <v>329</v>
+      </c>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K111" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L111" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A112" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B112" s="9">
+        <v>337</v>
+      </c>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K112" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L112" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A113" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="9">
+        <v>349</v>
+      </c>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K113" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A114" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" s="9">
+        <v>351</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K114" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L114" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A115" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B115" s="9">
+        <v>355</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K115" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A116" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B116" s="9">
+        <v>359</v>
+      </c>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K116" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L116" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A117" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B117" s="9">
+        <v>361</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K117" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A118" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B118" s="9">
+        <v>371</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K118" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L118" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A119" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B119" s="9">
+        <v>374</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K119" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L119" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A120" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B120" s="9">
+        <v>376</v>
+      </c>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K120" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L120" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A121" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B121" s="9">
+        <v>379</v>
+      </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K121" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A122" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B122" s="9">
+        <v>394</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K122" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L122" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A123" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B123" s="9">
+        <v>400</v>
+      </c>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K123" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L123" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A124" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B124" s="9">
+        <v>404</v>
+      </c>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K124" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L124" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A125" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B125" s="9">
+        <v>420</v>
+      </c>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K125" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L125" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A126" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B126" s="9">
+        <v>444</v>
+      </c>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K126" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L126" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A127" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B127" s="9">
+        <v>454</v>
+      </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K127" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A128" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B128" s="9">
+        <v>459</v>
+      </c>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J128" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K128" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L128" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A129" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B129" s="9">
+        <v>471</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J129" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K129" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L129" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A130" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B130" s="9">
+        <v>482</v>
+      </c>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I130" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J130" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K130" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L130" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A131" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B131" s="9">
+        <v>487</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K131" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L131" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A132" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B132" s="9">
+        <v>514</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K132" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L132" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A133" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B133" s="9">
+        <v>528</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K133" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L133" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A134" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B134" s="9">
+        <v>543</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I134" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K134" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L134" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A135" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B135" s="9">
+        <v>567</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K135" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L135" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="A136" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B136" s="9">
+        <v>582</v>
+      </c>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K136" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L136" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" s="13" customFormat="1" ht="30" hidden="1">
+      <c r="A137" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K137" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L137" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" s="13" customFormat="1" ht="30" hidden="1">
+      <c r="A138" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K138" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L138" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" s="13" customFormat="1" ht="30" hidden="1">
+      <c r="A139" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K139" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L139" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" s="13" customFormat="1" ht="25.5">
+      <c r="A140" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="G140" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K140" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="L140" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="M140" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="20" customFormat="1" ht="45">
-      <c r="A70" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" s="18">
-        <v>13</v>
-      </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="E70" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="F70" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="H70" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="I70" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J70" s="18" t="s">
+    <row r="141" spans="1:13" s="13" customFormat="1" ht="38.25">
+      <c r="A141" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J141" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K70" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="L70" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="M70" s="20" t="s">
+      <c r="K141" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="L141" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" s="13" customFormat="1" ht="38.25">
+      <c r="A142" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="I142" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K142" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="L142" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" s="13" customFormat="1" ht="30">
+      <c r="A143" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G143" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I143" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K143" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L143" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M143" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="20" customFormat="1" ht="25.5">
-      <c r="A71" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="18">
-        <v>34</v>
-      </c>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="F71" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="H71" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I71" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J71" s="18" t="s">
+    <row r="144" spans="1:13" s="13" customFormat="1" ht="30">
+      <c r="A144" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J144" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K71" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="L71" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="M71" s="20" t="s">
+      <c r="K144" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L144" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M144" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="20" customFormat="1" ht="75">
-      <c r="A72" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B72" s="18">
-        <v>49</v>
-      </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="G72" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="H72" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="I72" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J72" s="18" t="s">
+    <row r="145" spans="1:13" s="13" customFormat="1" ht="30">
+      <c r="A145" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J145" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K72" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="L72" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="M72" s="20" t="s">
+      <c r="K145" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L145" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M145" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="20" customFormat="1" ht="30">
-      <c r="A73" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B73" s="18">
-        <v>39</v>
-      </c>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="G73" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="H73" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="I73" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J73" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="K73" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="L73" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="M73" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:M73">
-    <filterColumn colId="0"/>
+  <autoFilter ref="A1:M145">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="SE"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3"/>
     <filterColumn colId="12"/>
   </autoFilter>
@@ -4242,6 +6685,26 @@
     <hyperlink ref="G73" location="'Rules'!A293" display="FDAC292"/>
     <hyperlink ref="F69" location="'Rules'!A284" display="SD2233"/>
     <hyperlink ref="G69" location="'Rules'!A284" display="FDAC302"/>
+    <hyperlink ref="F74" location="'Rules'!A158" display="SD1076"/>
+    <hyperlink ref="G74" location="'Rules'!A158" display="FDAC031"/>
+    <hyperlink ref="F76" location="'Rules'!A159" display="SD1077"/>
+    <hyperlink ref="G76" location="'Rules'!A159" display="FDAC021"/>
+    <hyperlink ref="F77" location="'Rules'!A163" display="SD1083"/>
+    <hyperlink ref="G77" location="'Rules'!A163" display="FDAC124"/>
+    <hyperlink ref="F78" location="'Rules'!A6" display="CT2005"/>
+    <hyperlink ref="G78" location="'Rules'!A6" display="FDAC344"/>
+    <hyperlink ref="F79" location="'Rules'!A113" display="SD1021"/>
+    <hyperlink ref="G79" location="'Rules'!A113" display="FDAC216"/>
+    <hyperlink ref="F137" location="'Rules'!A162" display="SD1082"/>
+    <hyperlink ref="G137" location="'Rules'!A162" display="FDAC036"/>
+    <hyperlink ref="F140" location="'Rules'!A159" display="SD1077"/>
+    <hyperlink ref="G140" location="'Rules'!A159" display="FDAC021"/>
+    <hyperlink ref="F141" location="'Rules'!A167" display="SD1087"/>
+    <hyperlink ref="G141" location="'Rules'!A167" display="FDAC128"/>
+    <hyperlink ref="F142" location="'Rules'!A171" display="SD1091"/>
+    <hyperlink ref="G142" location="'Rules'!A171" display="FDAC132"/>
+    <hyperlink ref="F143" location="'Rules'!A162" display="SD1082"/>
+    <hyperlink ref="G143" location="'Rules'!A162" display="FDAC036"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TDF_PSch_ReleaseNotes.xlsx
+++ b/TDF_PSch_ReleaseNotes.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Details" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Details!$A$1:$M$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Details!$A$1:$M$149</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="281">
   <si>
     <t>Pinnacle 21 ID</t>
   </si>
@@ -847,6 +847,21 @@
   </si>
   <si>
     <t>Add SEENDY</t>
+  </si>
+  <si>
+    <t>SUPPDM</t>
+  </si>
+  <si>
+    <t>QORIG, 193</t>
+  </si>
+  <si>
+    <t>QVAL, 199</t>
+  </si>
+  <si>
+    <t>QLABEL, 3</t>
+  </si>
+  <si>
+    <t>QEVAL, 178</t>
   </si>
 </sst>
 </file>
@@ -914,7 +929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -958,6 +973,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1253,13 +1269,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M141" sqref="M141"/>
+      <selection pane="bottomRight" activeCell="H155" sqref="H155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6376,7 +6392,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="140" spans="1:13" s="13" customFormat="1" ht="25.5">
+    <row r="140" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
       <c r="A140" s="9" t="s">
         <v>258</v>
       </c>
@@ -6481,7 +6497,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:13" s="13" customFormat="1" ht="30">
+    <row r="143" spans="1:13" s="13" customFormat="1" ht="30" hidden="1">
       <c r="A143" s="9" t="s">
         <v>258</v>
       </c>
@@ -6518,7 +6534,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="144" spans="1:13" s="13" customFormat="1" ht="30">
+    <row r="144" spans="1:13" s="13" customFormat="1" ht="30" hidden="1">
       <c r="A144" s="9" t="s">
         <v>258</v>
       </c>
@@ -6555,7 +6571,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="145" spans="1:13" s="13" customFormat="1" ht="30">
+    <row r="145" spans="1:13" s="13" customFormat="1" ht="30" hidden="1">
       <c r="A145" s="9" t="s">
         <v>258</v>
       </c>
@@ -6592,15 +6608,165 @@
         <v>173</v>
       </c>
     </row>
+    <row r="146" spans="1:13" customFormat="1" ht="30" hidden="1">
+      <c r="A146" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F146" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G146" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K146" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L146" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M146" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" customFormat="1" ht="30" hidden="1">
+      <c r="A147" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K147" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L147" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M147" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" customFormat="1" ht="30" hidden="1">
+      <c r="A148" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K148" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L148" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M148" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" customFormat="1" ht="30" hidden="1">
+      <c r="A149" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K149" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L149" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M149" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M145">
+  <autoFilter ref="A1:M149">
     <filterColumn colId="0">
       <filters>
         <filter val="SE"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3"/>
-    <filterColumn colId="12"/>
+    <filterColumn colId="12">
+      <filters blank="1"/>
+    </filterColumn>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="F2" location="'Rules'!A162" display="SD1082"/>
@@ -6705,6 +6871,8 @@
     <hyperlink ref="G142" location="'Rules'!A171" display="FDAC132"/>
     <hyperlink ref="F143" location="'Rules'!A162" display="SD1082"/>
     <hyperlink ref="G143" location="'Rules'!A162" display="FDAC036"/>
+    <hyperlink ref="F146" location="'Rules'!A162" display="SD1082"/>
+    <hyperlink ref="G146" location="'Rules'!A162" display="FDAC036"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TDF_PSch_ReleaseNotes.xlsx
+++ b/TDF_PSch_ReleaseNotes.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Details" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Details!$A$1:$M$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Details!$A$1:$M$83</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="248">
   <si>
     <t>Pinnacle 21 ID</t>
   </si>
@@ -693,30 +693,9 @@
     <t>Add missing parameter, searched for value in NDF-RT</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>VISITNUM</t>
-  </si>
-  <si>
-    <t>SD1076</t>
-  </si>
-  <si>
-    <t>FDAC031</t>
-  </si>
-  <si>
-    <t>Model permissible variable added into standard domain</t>
-  </si>
-  <si>
-    <t>VISIT</t>
-  </si>
-  <si>
     <t>VARIABLE, DATASET</t>
   </si>
   <si>
-    <t>EPOCH, DS</t>
-  </si>
-  <si>
     <t>SD1077</t>
   </si>
   <si>
@@ -726,75 +705,6 @@
     <t>FDA Expected variable EPOCH not found</t>
   </si>
   <si>
-    <t>DSDY</t>
-  </si>
-  <si>
-    <t>SD1083</t>
-  </si>
-  <si>
-    <t>FDAC124</t>
-  </si>
-  <si>
-    <t>Missing DSDY variable, when DSDTC variable is present</t>
-  </si>
-  <si>
-    <t>DSCAT, DSDECOD</t>
-  </si>
-  <si>
-    <t>DISPOSITION EVENT, PROTOCOL VIOLATION</t>
-  </si>
-  <si>
-    <t>DSDECOD value not found in 'Completion/Reason for Non-Completion' extensible codelist when DSCAT == 'DISPOSITION EVENT'</t>
-  </si>
-  <si>
-    <t>DSSPID</t>
-  </si>
-  <si>
-    <t>[1 spaces]7</t>
-  </si>
-  <si>
-    <t>SD1021</t>
-  </si>
-  <si>
-    <t>FDAC216</t>
-  </si>
-  <si>
-    <t>Unexpected character value in DSSPID variable</t>
-  </si>
-  <si>
-    <t>[1 spaces]8</t>
-  </si>
-  <si>
-    <t>[1 spaces]1</t>
-  </si>
-  <si>
-    <t>[1 spaces]9</t>
-  </si>
-  <si>
-    <t>[1 spaces]5</t>
-  </si>
-  <si>
-    <t>[1 spaces]3</t>
-  </si>
-  <si>
-    <t>[1 spaces]6</t>
-  </si>
-  <si>
-    <t>[1 spaces]4</t>
-  </si>
-  <si>
-    <t>[1 spaces]2</t>
-  </si>
-  <si>
-    <t>VISIT, 2</t>
-  </si>
-  <si>
-    <t>DSDTC, 3</t>
-  </si>
-  <si>
-    <t>DSDECOD, 36</t>
-  </si>
-  <si>
     <t>SE</t>
   </si>
   <si>
@@ -831,24 +741,9 @@
     <t>ETCD, 194</t>
   </si>
   <si>
-    <t>remove the blank</t>
-  </si>
-  <si>
     <t>Add EPOCH</t>
   </si>
   <si>
-    <t>check for values in controlled terminology</t>
-  </si>
-  <si>
-    <t>Add DSDY</t>
-  </si>
-  <si>
-    <t>Add SESTDY</t>
-  </si>
-  <si>
-    <t>Add SEENDY</t>
-  </si>
-  <si>
     <t>SUPPDM</t>
   </si>
   <si>
@@ -862,6 +757,14 @@
   </si>
   <si>
     <t>QEVAL, 178</t>
+  </si>
+  <si>
+    <t>Add SESTDY and calculate the value from RFSTDTC (DM) and SESTDTC
+There is a remaining Warning, about an added non-standard variable: P21 make up your mind!!!</t>
+  </si>
+  <si>
+    <t>Add SEENDY and calculate the value from RFSTDTC (DM) and SEENDTC
+There is a remaining Warning, about an added non-standard variable: P21 make up your mind!!!</t>
   </si>
 </sst>
 </file>
@@ -1268,14 +1171,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H155" sqref="H155"/>
+      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1337,7 +1239,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A2" s="5" t="s">
         <v>89</v>
       </c>
@@ -1374,7 +1276,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A3" s="5" t="s">
         <v>89</v>
       </c>
@@ -1411,7 +1313,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A4" s="5" t="s">
         <v>89</v>
       </c>
@@ -1448,7 +1350,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A5" s="5" t="s">
         <v>89</v>
       </c>
@@ -1485,7 +1387,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A6" s="5" t="s">
         <v>89</v>
       </c>
@@ -1522,7 +1424,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A7" s="5" t="s">
         <v>89</v>
       </c>
@@ -1559,7 +1461,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A8" s="5" t="s">
         <v>89</v>
       </c>
@@ -1596,7 +1498,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="45">
       <c r="A9" s="5" t="s">
         <v>89</v>
       </c>
@@ -1635,7 +1537,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="45">
       <c r="A10" s="5" t="s">
         <v>89</v>
       </c>
@@ -1674,7 +1576,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
+    <row r="11" spans="1:13" s="4" customFormat="1" ht="45">
       <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
@@ -1713,7 +1615,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="45">
       <c r="A12" s="5" t="s">
         <v>89</v>
       </c>
@@ -1752,7 +1654,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="45">
       <c r="A13" s="5" t="s">
         <v>89</v>
       </c>
@@ -1791,7 +1693,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
+    <row r="14" spans="1:13" s="4" customFormat="1" ht="45">
       <c r="A14" s="5" t="s">
         <v>89</v>
       </c>
@@ -1830,7 +1732,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
+    <row r="15" spans="1:13" s="4" customFormat="1" ht="45">
       <c r="A15" s="5" t="s">
         <v>89</v>
       </c>
@@ -1869,7 +1771,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
+    <row r="16" spans="1:13" s="4" customFormat="1" ht="45">
       <c r="A16" s="5" t="s">
         <v>89</v>
       </c>
@@ -1908,7 +1810,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
+    <row r="17" spans="1:13" s="4" customFormat="1" ht="45">
       <c r="A17" s="5" t="s">
         <v>89</v>
       </c>
@@ -1947,7 +1849,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
+    <row r="18" spans="1:13" s="4" customFormat="1" ht="45">
       <c r="A18" s="5" t="s">
         <v>89</v>
       </c>
@@ -1986,7 +1888,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
+    <row r="19" spans="1:13" s="4" customFormat="1" ht="45">
       <c r="A19" s="5" t="s">
         <v>89</v>
       </c>
@@ -2025,7 +1927,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
+    <row r="20" spans="1:13" s="4" customFormat="1" ht="45">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -2064,7 +1966,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="21" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A21" s="5" t="s">
         <v>100</v>
       </c>
@@ -2101,7 +2003,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
+    <row r="22" spans="1:13" s="4" customFormat="1" ht="45">
       <c r="A22" s="5" t="s">
         <v>100</v>
       </c>
@@ -2140,7 +2042,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" ht="45" hidden="1">
+    <row r="23" spans="1:13" s="4" customFormat="1" ht="45">
       <c r="A23" s="5" t="s">
         <v>100</v>
       </c>
@@ -2179,7 +2081,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="24" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A24" s="5" t="s">
         <v>100</v>
       </c>
@@ -2216,7 +2118,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="25" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A25" s="5" t="s">
         <v>100</v>
       </c>
@@ -2253,7 +2155,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="26" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A26" s="5" t="s">
         <v>100</v>
       </c>
@@ -2290,7 +2192,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="27" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A27" s="5" t="s">
         <v>100</v>
       </c>
@@ -2327,7 +2229,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="28" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A28" s="5" t="s">
         <v>100</v>
       </c>
@@ -2364,7 +2266,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="4" customFormat="1" ht="60" hidden="1">
+    <row r="29" spans="1:13" s="4" customFormat="1" ht="60">
       <c r="A29" s="4" t="s">
         <v>100</v>
       </c>
@@ -2390,7 +2292,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="30" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A30" s="5" t="s">
         <v>112</v>
       </c>
@@ -2427,7 +2329,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="31" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A31" s="5" t="s">
         <v>112</v>
       </c>
@@ -2464,7 +2366,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="32" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A32" s="5" t="s">
         <v>112</v>
       </c>
@@ -2501,7 +2403,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="33" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A33" s="5" t="s">
         <v>112</v>
       </c>
@@ -2538,7 +2440,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="34" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A34" s="5" t="s">
         <v>112</v>
       </c>
@@ -2575,7 +2477,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="4" customFormat="1" ht="25.5" hidden="1">
+    <row r="35" spans="1:13" s="4" customFormat="1" ht="25.5">
       <c r="A35" s="5" t="s">
         <v>116</v>
       </c>
@@ -2612,7 +2514,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="36" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A36" s="5" t="s">
         <v>116</v>
       </c>
@@ -2649,7 +2551,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
+    <row r="37" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A37" s="1" t="s">
         <v>120</v>
       </c>
@@ -2686,7 +2588,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
+    <row r="38" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A38" s="1" t="s">
         <v>120</v>
       </c>
@@ -2723,7 +2625,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
+    <row r="39" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A39" s="1" t="s">
         <v>120</v>
       </c>
@@ -2760,7 +2662,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="51" hidden="1">
+    <row r="40" spans="1:13" ht="51">
       <c r="A40" s="9" t="s">
         <v>120</v>
       </c>
@@ -2799,7 +2701,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="51" hidden="1">
+    <row r="41" spans="1:13" ht="51">
       <c r="A41" s="9" t="s">
         <v>120</v>
       </c>
@@ -2838,7 +2740,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="2" customFormat="1" ht="51.75" hidden="1">
+    <row r="42" spans="1:13" s="2" customFormat="1" ht="51.75">
       <c r="A42" s="1" t="s">
         <v>120</v>
       </c>
@@ -2877,7 +2779,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="2" customFormat="1" ht="51.75" hidden="1">
+    <row r="43" spans="1:13" s="2" customFormat="1" ht="51.75">
       <c r="A43" s="1" t="s">
         <v>120</v>
       </c>
@@ -2916,7 +2818,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="44" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A44" s="5" t="s">
         <v>120</v>
       </c>
@@ -2953,7 +2855,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="45" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A45" s="5" t="s">
         <v>120</v>
       </c>
@@ -2990,7 +2892,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="46" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A46" s="5" t="s">
         <v>120</v>
       </c>
@@ -3027,7 +2929,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="2" customFormat="1" ht="30" hidden="1">
+    <row r="47" spans="1:13" s="2" customFormat="1" ht="30">
       <c r="A47" s="1" t="s">
         <v>120</v>
       </c>
@@ -3066,7 +2968,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
+    <row r="48" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A48" s="1" t="s">
         <v>120</v>
       </c>
@@ -3102,7 +3004,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
+    <row r="49" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A49" s="1" t="s">
         <v>120</v>
       </c>
@@ -3138,7 +3040,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="30" hidden="1">
+    <row r="50" spans="1:13" ht="30">
       <c r="A50" s="9" t="s">
         <v>120</v>
       </c>
@@ -3175,7 +3077,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="105" hidden="1">
+    <row r="51" spans="1:13" ht="105">
       <c r="A51" s="9" t="s">
         <v>120</v>
       </c>
@@ -3212,7 +3114,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="60" hidden="1">
+    <row r="52" spans="1:13" ht="60">
       <c r="A52" s="9" t="s">
         <v>120</v>
       </c>
@@ -3249,7 +3151,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="30" hidden="1">
+    <row r="53" spans="1:13" ht="30">
       <c r="A53" s="9" t="s">
         <v>120</v>
       </c>
@@ -3286,7 +3188,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="2" customFormat="1" ht="30" hidden="1">
+    <row r="54" spans="1:13" s="2" customFormat="1" ht="30">
       <c r="A54" s="1" t="s">
         <v>120</v>
       </c>
@@ -3323,7 +3225,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
+    <row r="55" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A55" s="1" t="s">
         <v>120</v>
       </c>
@@ -3360,7 +3262,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="30" hidden="1">
+    <row r="56" spans="1:13" ht="30">
       <c r="A56" s="9" t="s">
         <v>120</v>
       </c>
@@ -3397,7 +3299,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="30" hidden="1">
+    <row r="57" spans="1:13" ht="30">
       <c r="A57" s="9" t="s">
         <v>120</v>
       </c>
@@ -3434,7 +3336,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
+    <row r="58" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A58" s="1" t="s">
         <v>120</v>
       </c>
@@ -3471,7 +3373,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
+    <row r="59" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A59" s="1" t="s">
         <v>120</v>
       </c>
@@ -3508,7 +3410,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
+    <row r="60" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A60" s="1" t="s">
         <v>120</v>
       </c>
@@ -3545,7 +3447,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
+    <row r="61" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -3582,7 +3484,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
+    <row r="62" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
@@ -3619,7 +3521,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="2" customFormat="1" ht="26.25" hidden="1">
+    <row r="63" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A63" s="1" t="s">
         <v>120</v>
       </c>
@@ -3656,7 +3558,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="2" customFormat="1" ht="60" hidden="1">
+    <row r="64" spans="1:13" s="2" customFormat="1" ht="60">
       <c r="A64" s="1" t="s">
         <v>120</v>
       </c>
@@ -3695,7 +3597,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="4" customFormat="1" ht="60" hidden="1">
+    <row r="65" spans="1:13" s="4" customFormat="1" ht="60">
       <c r="A65" s="5" t="s">
         <v>161</v>
       </c>
@@ -3732,7 +3634,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="66" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A66" s="5" t="s">
         <v>161</v>
       </c>
@@ -3769,7 +3671,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="67" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A67" s="5" t="s">
         <v>161</v>
       </c>
@@ -3806,7 +3708,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="4" customFormat="1" ht="30" hidden="1">
+    <row r="68" spans="1:13" s="4" customFormat="1" ht="30">
       <c r="A68" s="5" t="s">
         <v>161</v>
       </c>
@@ -3843,7 +3745,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="36" hidden="1" customHeight="1">
+    <row r="69" spans="1:13" ht="36" customHeight="1">
       <c r="A69" s="9" t="s">
         <v>120</v>
       </c>
@@ -3880,7 +3782,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="13" customFormat="1" ht="45" hidden="1">
+    <row r="70" spans="1:13" s="13" customFormat="1" ht="45">
       <c r="A70" s="11" t="s">
         <v>120</v>
       </c>
@@ -3919,7 +3821,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
+    <row r="71" spans="1:13" s="13" customFormat="1" ht="25.5">
       <c r="A71" s="11" t="s">
         <v>120</v>
       </c>
@@ -3958,7 +3860,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="13" customFormat="1" ht="75" hidden="1">
+    <row r="72" spans="1:13" s="13" customFormat="1" ht="75">
       <c r="A72" s="11" t="s">
         <v>120</v>
       </c>
@@ -3997,7 +3899,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="13" customFormat="1" ht="30" hidden="1">
+    <row r="73" spans="1:13" s="13" customFormat="1" ht="30">
       <c r="A73" s="11" t="s">
         <v>120</v>
       </c>
@@ -4036,26 +3938,26 @@
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
+    <row r="74" spans="1:13" s="13" customFormat="1" ht="25.5">
       <c r="A74" s="9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="E74" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F74" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="F74" s="14" t="s">
+      <c r="G74" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="G74" s="14" t="s">
+      <c r="H74" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>228</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>15</v>
@@ -4063,13 +3965,19 @@
       <c r="J74" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L74" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
+      <c r="K74" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="M74" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="75">
       <c r="A75" s="9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -4077,2696 +3985,334 @@
         <v>121</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>227</v>
+        <v>230</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="H75" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="75">
+      <c r="A76" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L75" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A76" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9" t="s">
-        <v>230</v>
+        <v>121</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="F76" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="G76" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K76" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="L76" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" s="13" customFormat="1" ht="38.25" hidden="1">
+        <v>6</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="13" customFormat="1" ht="30">
       <c r="A77" s="9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c r="H77" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M77" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" s="13" customFormat="1" ht="30">
+      <c r="A78" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="I77" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K77" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="L77" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" s="13" customFormat="1" ht="63.75" hidden="1">
-      <c r="A78" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9">
-        <v>6</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="14" t="s">
-        <v>11</v>
+      <c r="F78" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>241</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K78" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="L78" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
+        <v>6</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M78" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" s="13" customFormat="1" ht="30">
       <c r="A79" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B79" s="9">
-        <v>40</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M79" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" customFormat="1" ht="30">
+      <c r="A80" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="F80" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M80" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" customFormat="1" ht="30">
+      <c r="A81" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F79" s="14" t="s">
+      <c r="F81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M81" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" customFormat="1" ht="30">
+      <c r="A82" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G79" s="14" t="s">
+      <c r="F82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K82" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M82" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" customFormat="1" ht="30">
+      <c r="A83" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H79" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K79" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L79" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A80" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B80" s="9">
-        <v>109</v>
-      </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J80" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K80" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L80" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A81" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B81" s="9">
-        <v>111</v>
-      </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J81" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K81" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L81" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A82" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B82" s="9">
-        <v>123</v>
-      </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J82" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K82" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L82" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A83" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B83" s="9">
-        <v>142</v>
-      </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J83" s="9" t="s">
-        <v>9</v>
+      <c r="F83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c r="L83" s="8" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A84" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B84" s="9">
-        <v>146</v>
-      </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J84" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K84" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L84" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A85" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B85" s="9">
-        <v>154</v>
-      </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J85" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K85" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L85" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A86" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B86" s="9">
-        <v>160</v>
-      </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J86" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K86" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L86" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A87" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B87" s="9">
-        <v>165</v>
-      </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J87" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K87" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L87" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A88" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B88" s="9">
-        <v>177</v>
-      </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J88" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K88" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L88" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A89" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B89" s="9">
-        <v>187</v>
-      </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I89" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J89" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K89" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L89" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A90" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B90" s="9">
-        <v>195</v>
-      </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I90" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J90" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K90" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L90" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A91" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B91" s="9">
-        <v>203</v>
-      </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I91" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J91" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K91" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L91" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A92" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B92" s="9">
-        <v>209</v>
-      </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I92" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J92" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K92" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L92" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A93" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B93" s="9">
-        <v>214</v>
-      </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I93" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J93" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K93" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L93" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A94" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B94" s="9">
-        <v>220</v>
-      </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J94" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K94" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L94" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A95" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B95" s="9">
-        <v>222</v>
-      </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J95" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K95" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L95" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A96" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B96" s="9">
-        <v>230</v>
-      </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I96" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J96" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K96" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L96" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A97" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B97" s="9">
-        <v>237</v>
-      </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I97" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J97" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K97" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L97" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A98" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B98" s="9">
-        <v>251</v>
-      </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I98" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J98" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K98" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L98" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A99" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B99" s="9">
-        <v>253</v>
-      </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I99" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J99" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K99" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L99" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A100" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B100" s="9">
-        <v>262</v>
-      </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I100" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J100" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K100" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L100" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A101" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B101" s="9">
-        <v>269</v>
-      </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I101" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J101" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K101" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L101" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A102" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B102" s="9">
-        <v>271</v>
-      </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I102" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J102" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K102" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L102" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A103" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B103" s="9">
-        <v>284</v>
-      </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I103" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J103" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K103" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L103" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A104" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B104" s="9">
-        <v>292</v>
-      </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H104" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I104" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J104" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K104" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L104" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A105" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B105" s="9">
-        <v>297</v>
-      </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I105" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J105" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K105" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L105" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A106" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B106" s="9">
-        <v>305</v>
-      </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I106" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J106" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K106" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L106" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A107" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B107" s="9">
-        <v>309</v>
-      </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G107" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H107" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I107" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J107" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K107" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L107" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A108" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B108" s="9">
-        <v>315</v>
-      </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I108" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J108" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K108" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L108" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A109" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B109" s="9">
-        <v>321</v>
-      </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H109" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I109" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J109" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K109" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L109" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A110" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B110" s="9">
-        <v>323</v>
-      </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I110" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J110" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K110" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L110" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A111" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B111" s="9">
-        <v>329</v>
-      </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H111" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I111" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J111" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K111" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L111" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A112" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B112" s="9">
-        <v>337</v>
-      </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I112" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J112" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K112" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L112" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A113" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B113" s="9">
-        <v>349</v>
-      </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H113" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I113" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J113" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K113" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L113" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A114" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B114" s="9">
-        <v>351</v>
-      </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I114" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J114" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K114" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L114" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A115" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B115" s="9">
-        <v>355</v>
-      </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G115" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H115" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I115" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J115" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K115" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L115" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A116" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B116" s="9">
-        <v>359</v>
-      </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I116" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J116" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K116" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L116" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A117" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B117" s="9">
-        <v>361</v>
-      </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I117" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J117" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K117" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L117" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A118" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B118" s="9">
-        <v>371</v>
-      </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I118" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J118" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K118" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L118" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A119" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B119" s="9">
-        <v>374</v>
-      </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I119" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J119" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K119" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L119" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A120" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B120" s="9">
-        <v>376</v>
-      </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I120" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J120" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K120" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L120" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A121" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B121" s="9">
-        <v>379</v>
-      </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H121" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I121" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J121" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K121" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L121" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A122" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B122" s="9">
-        <v>394</v>
-      </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I122" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J122" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K122" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L122" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A123" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B123" s="9">
-        <v>400</v>
-      </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G123" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H123" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I123" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J123" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K123" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L123" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A124" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B124" s="9">
-        <v>404</v>
-      </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G124" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H124" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I124" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J124" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K124" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L124" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A125" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B125" s="9">
-        <v>420</v>
-      </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H125" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I125" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J125" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K125" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L125" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A126" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B126" s="9">
-        <v>444</v>
-      </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F126" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G126" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H126" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I126" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J126" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K126" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L126" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A127" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B127" s="9">
-        <v>454</v>
-      </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F127" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G127" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H127" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I127" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J127" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K127" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L127" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A128" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B128" s="9">
-        <v>459</v>
-      </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F128" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G128" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H128" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I128" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J128" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K128" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L128" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A129" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B129" s="9">
-        <v>471</v>
-      </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="F129" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G129" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H129" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I129" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J129" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K129" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L129" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A130" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B130" s="9">
-        <v>482</v>
-      </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F130" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G130" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I130" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J130" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K130" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L130" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A131" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B131" s="9">
-        <v>487</v>
-      </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F131" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G131" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H131" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I131" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J131" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K131" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L131" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A132" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B132" s="9">
-        <v>514</v>
-      </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H132" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I132" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J132" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K132" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L132" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A133" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B133" s="9">
-        <v>528</v>
-      </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H133" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I133" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J133" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K133" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L133" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A134" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B134" s="9">
-        <v>543</v>
-      </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G134" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H134" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I134" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J134" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K134" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L134" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A135" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B135" s="9">
-        <v>567</v>
-      </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F135" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G135" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H135" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I135" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J135" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K135" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L135" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A136" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B136" s="9">
-        <v>582</v>
-      </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F136" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G136" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I136" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J136" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K136" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L136" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" s="13" customFormat="1" ht="30" hidden="1">
-      <c r="A137" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="F137" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G137" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H137" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I137" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J137" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K137" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="L137" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" s="13" customFormat="1" ht="30" hidden="1">
-      <c r="A138" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="F138" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G138" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H138" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I138" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J138" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K138" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="L138" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" s="13" customFormat="1" ht="30" hidden="1">
-      <c r="A139" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="F139" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G139" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H139" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I139" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J139" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K139" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="L139" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" s="13" customFormat="1" ht="25.5" hidden="1">
-      <c r="A140" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="F140" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="G140" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="H140" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="I140" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J140" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K140" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="L140" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="M140" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" s="13" customFormat="1" ht="38.25">
-      <c r="A141" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="F141" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="G141" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="H141" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="I141" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J141" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K141" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="L141" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" s="13" customFormat="1" ht="38.25">
-      <c r="A142" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="F142" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="G142" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="I142" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J142" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K142" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="L142" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" s="13" customFormat="1" ht="30" hidden="1">
-      <c r="A143" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B143" s="9"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F143" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G143" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H143" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I143" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J143" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K143" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="L143" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M143" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" s="13" customFormat="1" ht="30" hidden="1">
-      <c r="A144" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E144" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="F144" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G144" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H144" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I144" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J144" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K144" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="L144" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M144" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" s="13" customFormat="1" ht="30" hidden="1">
-      <c r="A145" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E145" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="F145" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H145" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I145" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J145" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K145" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="L145" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M145" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" customFormat="1" ht="30" hidden="1">
-      <c r="A146" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F146" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G146" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K146" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="L146" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M146" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" customFormat="1" ht="30" hidden="1">
-      <c r="A147" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K147" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="L147" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M147" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" customFormat="1" ht="30" hidden="1">
-      <c r="A148" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K148" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="L148" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M148" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" customFormat="1" ht="30" hidden="1">
-      <c r="A149" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J149" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K149" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="L149" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M149" s="13" t="s">
+      <c r="M83" s="13" t="s">
         <v>173</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M149">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="SE"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:M83">
+    <filterColumn colId="0"/>
     <filterColumn colId="3"/>
-    <filterColumn colId="12">
-      <filters blank="1"/>
-    </filterColumn>
+    <filterColumn colId="12"/>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="F2" location="'Rules'!A162" display="SD1082"/>
@@ -6851,28 +4397,16 @@
     <hyperlink ref="G73" location="'Rules'!A293" display="FDAC292"/>
     <hyperlink ref="F69" location="'Rules'!A284" display="SD2233"/>
     <hyperlink ref="G69" location="'Rules'!A284" display="FDAC302"/>
-    <hyperlink ref="F74" location="'Rules'!A158" display="SD1076"/>
-    <hyperlink ref="G74" location="'Rules'!A158" display="FDAC031"/>
-    <hyperlink ref="F76" location="'Rules'!A159" display="SD1077"/>
-    <hyperlink ref="G76" location="'Rules'!A159" display="FDAC021"/>
-    <hyperlink ref="F77" location="'Rules'!A163" display="SD1083"/>
-    <hyperlink ref="G77" location="'Rules'!A163" display="FDAC124"/>
-    <hyperlink ref="F78" location="'Rules'!A6" display="CT2005"/>
-    <hyperlink ref="G78" location="'Rules'!A6" display="FDAC344"/>
-    <hyperlink ref="F79" location="'Rules'!A113" display="SD1021"/>
-    <hyperlink ref="G79" location="'Rules'!A113" display="FDAC216"/>
-    <hyperlink ref="F137" location="'Rules'!A162" display="SD1082"/>
-    <hyperlink ref="G137" location="'Rules'!A162" display="FDAC036"/>
-    <hyperlink ref="F140" location="'Rules'!A159" display="SD1077"/>
-    <hyperlink ref="G140" location="'Rules'!A159" display="FDAC021"/>
-    <hyperlink ref="F141" location="'Rules'!A167" display="SD1087"/>
-    <hyperlink ref="G141" location="'Rules'!A167" display="FDAC128"/>
-    <hyperlink ref="F142" location="'Rules'!A171" display="SD1091"/>
-    <hyperlink ref="G142" location="'Rules'!A171" display="FDAC132"/>
-    <hyperlink ref="F143" location="'Rules'!A162" display="SD1082"/>
-    <hyperlink ref="G143" location="'Rules'!A162" display="FDAC036"/>
-    <hyperlink ref="F146" location="'Rules'!A162" display="SD1082"/>
-    <hyperlink ref="G146" location="'Rules'!A162" display="FDAC036"/>
+    <hyperlink ref="F74" location="'Rules'!A159" display="SD1077"/>
+    <hyperlink ref="G74" location="'Rules'!A159" display="FDAC021"/>
+    <hyperlink ref="F75" location="'Rules'!A167" display="SD1087"/>
+    <hyperlink ref="G75" location="'Rules'!A167" display="FDAC128"/>
+    <hyperlink ref="F76" location="'Rules'!A171" display="SD1091"/>
+    <hyperlink ref="G76" location="'Rules'!A171" display="FDAC132"/>
+    <hyperlink ref="F77" location="'Rules'!A162" display="SD1082"/>
+    <hyperlink ref="G77" location="'Rules'!A162" display="FDAC036"/>
+    <hyperlink ref="F80" location="'Rules'!A162" display="SD1082"/>
+    <hyperlink ref="G80" location="'Rules'!A162" display="FDAC036"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
